--- a/artfynd/A 59334-2025 artfynd.xlsx
+++ b/artfynd/A 59334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130654937</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>130654521</v>
       </c>
       <c r="B3" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>130654940</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130654516</v>
+        <v>130654519</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1041,23 +1041,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1065,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>440167</v>
+        <v>440188</v>
       </c>
       <c r="R5" t="n">
-        <v>7053949</v>
+        <v>7053971</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1101,11 +1097,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1123,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130654519</v>
+        <v>130654516</v>
       </c>
       <c r="B6" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1143,19 +1134,23 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1163,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>440188</v>
+        <v>440167</v>
       </c>
       <c r="R6" t="n">
-        <v>7053971</v>
+        <v>7053949</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1199,6 +1194,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1228,7 +1228,7 @@
         <v>130654510</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>130654513</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130654938</v>
+        <v>130654941</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>440117</v>
+        <v>440134</v>
       </c>
       <c r="R9" t="n">
-        <v>7053967</v>
+        <v>7053783</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1505,6 +1505,11 @@
           <t>2026-01-12</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Växer på en gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1530,14 +1535,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130654941</v>
+        <v>130654930</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1566,26 +1566,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1593,10 +1598,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>440134</v>
+        <v>440168</v>
       </c>
       <c r="R10" t="n">
-        <v>7053783</v>
+        <v>7053746</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1633,7 +1638,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer på en gran vid en hyggeskant.</t>
+          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1642,7 +1647,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1661,9 +1665,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1681,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130654930</v>
+        <v>130654517</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1710,24 +1719,16 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>440168</v>
+        <v>440178</v>
       </c>
       <c r="R11" t="n">
-        <v>7053746</v>
+        <v>7053979</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1764,7 +1765,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1775,51 +1776,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130654517</v>
+        <v>130654938</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1827,34 +1803,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>440178</v>
+        <v>440117</v>
       </c>
       <c r="R12" t="n">
-        <v>7053979</v>
+        <v>7053967</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1889,29 +1868,50 @@
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1921,7 +1921,7 @@
         <v>130654514</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>130654932</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>130654939</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>130654936</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130654518</v>
+        <v>130654935</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2428,34 +2428,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>440177</v>
+        <v>439862</v>
       </c>
       <c r="R17" t="n">
-        <v>7054022</v>
+        <v>7054226</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2501,28 +2504,54 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130654935</v>
+        <v>130654518</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2530,37 +2559,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>439862</v>
+        <v>440177</v>
       </c>
       <c r="R18" t="n">
-        <v>7054226</v>
+        <v>7054022</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2597,7 +2623,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2606,44 +2632,18 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
         <v>130654511</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>130654512</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>130654515</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>130654933</v>
       </c>
       <c r="B22" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>130654931</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>130654942</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>130693178</v>
       </c>
       <c r="B25" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/artfynd/A 59334-2025 artfynd.xlsx
+++ b/artfynd/A 59334-2025 artfynd.xlsx
@@ -1429,7 +1429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130654941</v>
+        <v>130654938</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>440134</v>
+        <v>440117</v>
       </c>
       <c r="R9" t="n">
-        <v>7053783</v>
+        <v>7053967</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1505,11 +1505,6 @@
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Växer på en gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1535,9 +1530,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130654930</v>
+        <v>130654941</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1566,31 +1566,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1598,10 +1593,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>440168</v>
+        <v>440134</v>
       </c>
       <c r="R10" t="n">
-        <v>7053746</v>
+        <v>7053783</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1638,7 +1633,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
+          <t>Växer på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1647,6 +1642,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1665,14 +1661,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1690,7 +1681,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130654517</v>
+        <v>130654930</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1719,16 +1710,24 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>440178</v>
+        <v>440168</v>
       </c>
       <c r="R11" t="n">
-        <v>7053979</v>
+        <v>7053746</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1776,26 +1775,51 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130654938</v>
+        <v>130654517</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1803,37 +1827,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>440117</v>
+        <v>440178</v>
       </c>
       <c r="R12" t="n">
-        <v>7053967</v>
+        <v>7053979</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1868,50 +1889,29 @@
           <t>2026-01-12</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130654935</v>
+        <v>130654518</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2428,37 +2428,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>439862</v>
+        <v>440177</v>
       </c>
       <c r="R17" t="n">
-        <v>7054226</v>
+        <v>7054022</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2495,7 +2492,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2504,54 +2501,28 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130654518</v>
+        <v>130654935</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2559,34 +2530,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>440177</v>
+        <v>439862</v>
       </c>
       <c r="R18" t="n">
-        <v>7054022</v>
+        <v>7054226</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2623,7 +2597,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2632,18 +2606,44 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 59334-2025 artfynd.xlsx
+++ b/artfynd/A 59334-2025 artfynd.xlsx
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130654938</v>
+        <v>130654930</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,26 +1440,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1467,10 +1472,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>440117</v>
+        <v>440168</v>
       </c>
       <c r="R9" t="n">
-        <v>7053967</v>
+        <v>7053746</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1505,13 +1510,17 @@
           <t>2026-01-12</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1532,12 +1541,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1555,10 +1564,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130654941</v>
+        <v>130654517</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1566,37 +1575,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>440134</v>
+        <v>440178</v>
       </c>
       <c r="R10" t="n">
-        <v>7053783</v>
+        <v>7053979</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1633,7 +1639,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer på en gran vid en hyggeskant.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1642,49 +1648,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130654930</v>
+        <v>130654938</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1692,31 +1677,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1724,10 +1704,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>440168</v>
+        <v>440117</v>
       </c>
       <c r="R11" t="n">
-        <v>7053746</v>
+        <v>7053967</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1762,17 +1742,13 @@
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1793,12 +1769,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1816,10 +1792,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130654517</v>
+        <v>130654941</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1827,34 +1803,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>440178</v>
+        <v>440134</v>
       </c>
       <c r="R12" t="n">
-        <v>7053979</v>
+        <v>7053783</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1891,7 +1870,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Växer på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1900,18 +1879,39 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130654518</v>
+        <v>130654935</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2428,34 +2428,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>440177</v>
+        <v>439862</v>
       </c>
       <c r="R17" t="n">
-        <v>7054022</v>
+        <v>7054226</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2501,28 +2504,54 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130654935</v>
+        <v>130654518</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2530,37 +2559,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>439862</v>
+        <v>440177</v>
       </c>
       <c r="R18" t="n">
-        <v>7054226</v>
+        <v>7054022</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2597,7 +2623,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2606,44 +2632,18 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 59334-2025 artfynd.xlsx
+++ b/artfynd/A 59334-2025 artfynd.xlsx
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130654933</v>
+        <v>130654931</v>
       </c>
       <c r="B22" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2989,7 +2989,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2999,10 +2999,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>439962</v>
+        <v>440195</v>
       </c>
       <c r="R22" t="n">
-        <v>7053998</v>
+        <v>7053721</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Äldre hackspår i stambasen av en stående död gran med full längd.</t>
+          <t>Ringhack (savhack), färska, enstaka på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130654931</v>
+        <v>130654933</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3102,16 +3102,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3124,7 +3124,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>440195</v>
+        <v>439962</v>
       </c>
       <c r="R23" t="n">
-        <v>7053721</v>
+        <v>7053998</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, enstaka på en gran vid en hyggeskant.</t>
+          <t>Äldre hackspår i stambasen av en stående död gran med full längd.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>

--- a/artfynd/A 59334-2025 artfynd.xlsx
+++ b/artfynd/A 59334-2025 artfynd.xlsx
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130654930</v>
+        <v>130654938</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,31 +1440,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1472,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>440168</v>
+        <v>440117</v>
       </c>
       <c r="R9" t="n">
-        <v>7053746</v>
+        <v>7053967</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1510,17 +1505,13 @@
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1541,12 +1532,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1564,7 +1555,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130654517</v>
+        <v>130654930</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1593,16 +1584,24 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>440178</v>
+        <v>440168</v>
       </c>
       <c r="R10" t="n">
-        <v>7053979</v>
+        <v>7053746</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack (savhack), enstaka färska, några meter upp på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1650,26 +1649,51 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130654938</v>
+        <v>130654517</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1677,37 +1701,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>440117</v>
+        <v>440178</v>
       </c>
       <c r="R11" t="n">
-        <v>7053967</v>
+        <v>7053979</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1742,50 +1763,29 @@
           <t>2026-01-12</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130654935</v>
+        <v>130654518</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2428,37 +2428,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>439862</v>
+        <v>440177</v>
       </c>
       <c r="R17" t="n">
-        <v>7054226</v>
+        <v>7054022</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2495,7 +2492,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2504,54 +2501,28 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130654518</v>
+        <v>130654935</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2559,34 +2530,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Ödemokojan, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>440177</v>
+        <v>439862</v>
       </c>
       <c r="R18" t="n">
-        <v>7054022</v>
+        <v>7054226</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2623,7 +2597,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2632,18 +2606,44 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130654931</v>
+        <v>130654933</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2989,7 +2989,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2999,10 +2999,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>440195</v>
+        <v>439962</v>
       </c>
       <c r="R22" t="n">
-        <v>7053721</v>
+        <v>7053998</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, enstaka på en gran vid en hyggeskant.</t>
+          <t>Äldre hackspår i stambasen av en stående död gran med full längd.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130654933</v>
+        <v>130654931</v>
       </c>
       <c r="B23" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3102,16 +3102,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3124,7 +3124,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>439962</v>
+        <v>440195</v>
       </c>
       <c r="R23" t="n">
-        <v>7053998</v>
+        <v>7053721</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Äldre hackspår i stambasen av en stående död gran med full längd.</t>
+          <t>Ringhack (savhack), färska, enstaka på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
